--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Netherlands\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="53">
   <si>
     <t>Year</t>
   </si>
@@ -211,6 +211,22 @@
   </si>
   <si>
     <t xml:space="preserve">Obv: Blue and yellow figures </t>
+  </si>
+  <si>
+    <t>Subtype_3</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>Subtype_4</t>
+  </si>
+  <si>
+    <t>Obv: With mint symbol - 
+Staff of Mercury</t>
+  </si>
+  <si>
+    <t>Obv: Mint director Symbol - Sailboat</t>
   </si>
 </sst>
 </file>
@@ -418,7 +434,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -476,6 +492,12 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,11 +510,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -500,47 +522,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -683,9 +665,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="21"/>
-    <tableColumn id="2" name="Link" dataDxfId="20" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="19"/>
+    <tableColumn id="1" name="№" dataDxfId="16"/>
+    <tableColumn id="2" name="Link" dataDxfId="15" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -954,85 +936,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="14" customWidth="1"/>
     <col min="2" max="2" width="48.6328125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="36.7265625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="H2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2007</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="11">
+      <c r="H3" s="11">
         <v>0</v>
       </c>
-      <c r="G3" s="12" t="str">
-        <f t="shared" ref="G3:G23" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="12" t="str">
+        <f t="shared" ref="I3:I23" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2008</v>
       </c>
@@ -1048,35 +1048,49 @@
       <c r="E4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="12" t="str">
+      <c r="F4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2009</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="11">
+      <c r="H5" s="11">
         <v>0</v>
       </c>
-      <c r="G5" s="12" t="str">
+      <c r="I5" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2010</v>
       </c>
@@ -1092,97 +1106,135 @@
       <c r="E6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="12" t="str">
-        <f t="shared" ref="G6" si="1">IF(OR(AND(F6&gt;1,F6&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="12" t="str">
+        <f t="shared" ref="I6" si="1">IF(OR(AND(H6&gt;1,H6&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2011</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="11">
+      <c r="H7" s="11">
         <v>0</v>
       </c>
-      <c r="G7" s="12" t="str">
+      <c r="I7" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2012</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="11">
+      <c r="H8" s="11">
         <v>0</v>
       </c>
-      <c r="G8" s="12" t="str">
+      <c r="I8" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2013</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="11">
+      <c r="H9" s="11">
         <v>0</v>
       </c>
-      <c r="G9" s="12" t="str">
+      <c r="I9" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2013</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="11">
+      <c r="H10" s="11">
         <v>0</v>
       </c>
-      <c r="G10" s="12" t="str">
-        <f t="shared" ref="G10" si="2">IF(OR(AND(F10&gt;1,F10&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I10" s="12" t="str">
+        <f t="shared" ref="I10" si="2">IF(OR(AND(H10&gt;1,H10&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2013</v>
       </c>
@@ -1190,42 +1242,58 @@
         <v>35</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="28" t="s">
+      <c r="G11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="12" t="str">
-        <f t="shared" ref="G11" si="3">IF(OR(AND(F11&gt;1,F11&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="12" t="str">
+        <f t="shared" ref="I11" si="3">IF(OR(AND(H11&gt;1,H11&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2014</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="11">
+      <c r="H12" s="11">
         <v>0</v>
       </c>
-      <c r="G12" s="12" t="str">
+      <c r="I12" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2014</v>
       </c>
@@ -1233,21 +1301,29 @@
         <v>37</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="28" t="s">
+      <c r="G13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="12" t="str">
+      <c r="H13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2014</v>
       </c>
@@ -1255,21 +1331,29 @@
         <v>37</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="28" t="s">
+      <c r="G14" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="12" t="str">
-        <f t="shared" ref="G14:G15" si="4">IF(OR(AND(F14&gt;1,F14&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="12" t="str">
+        <f t="shared" ref="I14:I15" si="4">IF(OR(AND(H14&gt;1,H14&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -1277,41 +1361,57 @@
         <v>37</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="28" t="s">
+      <c r="G15" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="12" t="str">
+      <c r="H15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10" t="s">
+      <c r="C16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="11">
+      <c r="H16" s="11">
         <v>0</v>
       </c>
-      <c r="G16" s="12" t="str">
+      <c r="I16" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2015</v>
       </c>
@@ -1319,21 +1419,29 @@
         <v>11</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="28" t="s">
+      <c r="G17" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="12" t="str">
-        <f t="shared" ref="G17" si="5">IF(OR(AND(F17&gt;1,F17&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="12" t="str">
+        <f t="shared" ref="I17" si="5">IF(OR(AND(H17&gt;1,H17&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2015</v>
       </c>
@@ -1341,21 +1449,29 @@
         <v>11</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="28" t="s">
+      <c r="G18" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="12" t="str">
-        <f t="shared" ref="G18:G19" si="6">IF(OR(AND(F18&gt;1,F18&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="12" t="str">
+        <f t="shared" ref="I18:I19" si="6">IF(OR(AND(H18&gt;1,H18&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2015</v>
       </c>
@@ -1363,21 +1479,29 @@
         <v>11</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="28" t="s">
+      <c r="G19" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="12" t="str">
+      <c r="H19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2016</v>
       </c>
@@ -1393,15 +1517,21 @@
       <c r="E20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="12" t="str">
+      <c r="F20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2017</v>
       </c>
@@ -1417,15 +1547,21 @@
       <c r="E21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="12" t="str">
+      <c r="F21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2018</v>
       </c>
@@ -1441,15 +1577,21 @@
       <c r="E22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="12" t="str">
+      <c r="F22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
@@ -1465,10 +1607,16 @@
       <c r="E23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="12" t="str">
+      <c r="F23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1477,14 +1625,14 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F5 F7:F10 F12 F16">
-    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F5 F7:F10 F12 F16">
+  <conditionalFormatting sqref="H3 H5 H7:H10 H12 H16">
+    <cfRule type="containsText" dxfId="13" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3 H5 H7:H10 H12 H16">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1496,12 +1644,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1513,12 +1661,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="H23">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1530,12 +1678,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="10" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1547,12 +1695,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1564,12 +1712,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="8" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1581,12 +1729,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="7" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1598,12 +1746,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="6" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1615,12 +1763,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1632,12 +1780,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+  <conditionalFormatting sqref="H14">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1649,12 +1797,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1666,12 +1814,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="H17">
     <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1683,12 +1831,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="H18">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1700,12 +1848,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Netherlands\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -498,6 +498,9 @@
     <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,13 +510,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,6 +523,15 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -635,15 +644,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -665,9 +665,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="16"/>
-    <tableColumn id="2" name="Link" dataDxfId="15" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="14"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -942,37 +942,37 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="48.6328125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
-      <c r="F1" s="28"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
@@ -981,9 +981,9 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2007</v>
       </c>
@@ -1014,7 +1014,7 @@
       <c r="C3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -1032,7 +1032,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2008</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2009</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="C5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -1090,7 +1090,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2010</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2011</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="C7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -1148,7 +1148,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2012</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="C8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -1176,7 +1176,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2013</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="C9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2013</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2013</v>
       </c>
@@ -1244,7 +1244,7 @@
       <c r="C11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2014</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="C12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -1293,7 +1293,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2014</v>
       </c>
@@ -1303,7 +1303,7 @@
       <c r="C13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -1323,7 +1323,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2014</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="C14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -1353,7 +1353,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -1363,7 +1363,7 @@
       <c r="C15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -1383,7 +1383,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="C16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -1404,14 +1404,14 @@
         <v>33</v>
       </c>
       <c r="H16" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2015</v>
       </c>
@@ -1421,7 +1421,7 @@
       <c r="C17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="9" t="s">
@@ -1441,7 +1441,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2015</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="C18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -1471,7 +1471,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2015</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="C19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -1501,7 +1501,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2016</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>2017</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>2018</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
@@ -1628,11 +1628,11 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3 H5 H7:H10 H12 H16">
-    <cfRule type="containsText" dxfId="13" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H5 H7:H10 H12 H16">
+  <conditionalFormatting sqref="H5 H3 H7:H10 H12 H16">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1645,7 +1645,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1662,7 +1662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1679,7 +1679,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="10" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1696,7 +1696,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1713,7 +1713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="8" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1730,7 +1730,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="7" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1747,7 +1747,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="6" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1764,7 +1764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1781,7 +1781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1798,7 +1798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1815,7 +1815,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1832,7 +1832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1849,7 +1849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1879,14 +1879,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>

--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Netherlands\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A443F8-5F23-446F-A244-7027E75766E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="53">
   <si>
     <t>Year</t>
   </si>
@@ -232,7 +233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,9 +521,17 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -658,16 +667,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -935,14 +944,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1621,6 +1630,36 @@
         <v/>
       </c>
     </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="12" t="str">
+        <f t="shared" ref="I24" si="7">IF(OR(AND(H24&gt;1,H24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -1628,12 +1667,12 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3 H5 H7:H10 H12 H16">
-    <cfRule type="containsText" dxfId="16" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H3 H7:H10 H12 H16">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="H3 H5 H7:H10 H12 H16">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1645,11 +1684,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
     <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1661,13 +1717,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1678,12 +1734,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="12" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1695,12 +1768,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1712,63 +1819,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="H14">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1780,12 +1836,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="H15">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1797,12 +1853,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H17">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1814,12 +1870,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="H18">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1831,12 +1887,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+  <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1848,12 +1904,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1872,7 +1928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1965,12 +2021,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Netherlands\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A443F8-5F23-446F-A244-7027E75766E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AA584C-F485-4EA7-9DE2-8475990A7F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -68,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="56">
   <si>
     <t>Year</t>
   </si>
@@ -228,6 +237,15 @@
   </si>
   <si>
     <t>Obv: Mint director Symbol - Sailboat</t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>Obv: Mint director Symbol -  Raven</t>
+  </si>
+  <si>
+    <t>570.000</t>
   </si>
 </sst>
 </file>
@@ -523,7 +541,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -540,6 +566,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -674,9 +708,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -945,31 +979,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="14" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -990,7 +1024,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="5" t="s">
@@ -1013,7 +1047,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2007</v>
       </c>
@@ -1041,7 +1075,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2008</v>
       </c>
@@ -1071,7 +1105,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2009</v>
       </c>
@@ -1099,7 +1133,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2010</v>
       </c>
@@ -1129,7 +1163,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2011</v>
       </c>
@@ -1150,14 +1184,14 @@
         <v>29</v>
       </c>
       <c r="H7" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2012</v>
       </c>
@@ -1178,14 +1212,14 @@
         <v>30</v>
       </c>
       <c r="H8" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2013</v>
       </c>
@@ -1214,7 +1248,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2013</v>
       </c>
@@ -1243,7 +1277,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2013</v>
       </c>
@@ -1274,7 +1308,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2014</v>
       </c>
@@ -1302,7 +1336,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2014</v>
       </c>
@@ -1332,7 +1366,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2014</v>
       </c>
@@ -1362,7 +1396,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -1392,7 +1426,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -1420,7 +1454,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2015</v>
       </c>
@@ -1450,7 +1484,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2015</v>
       </c>
@@ -1480,7 +1514,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2015</v>
       </c>
@@ -1510,7 +1544,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2016</v>
       </c>
@@ -1540,7 +1574,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2017</v>
       </c>
@@ -1570,7 +1604,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2018</v>
       </c>
@@ -1600,7 +1634,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
@@ -1630,7 +1664,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>2020</v>
       </c>
@@ -1656,7 +1690,95 @@
         <v>7</v>
       </c>
       <c r="I24" s="12" t="str">
-        <f t="shared" ref="I24" si="7">IF(OR(AND(H24&gt;1,H24&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I24:I26" si="7">IF(OR(AND(H24&gt;1,H24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="12" t="str">
+        <f t="shared" ref="I27" si="8">IF(OR(AND(H27&gt;1,H27&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1667,12 +1789,12 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3 H5 H7:H10 H12 H16">
-    <cfRule type="containsText" dxfId="17" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H5 H7:H10 H12 H16">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="H5 H3 H7:H10 H12 H16">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1684,12 +1806,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1700,13 +1822,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H23 H25">
+    <cfRule type="containsText" dxfId="17" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="H23 H25">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1718,11 +1840,62 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="14" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1734,12 +1907,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="12" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1751,63 +1958,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="12" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="H15">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1819,12 +1975,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="H17">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1836,12 +1992,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H18">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1853,12 +2009,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1870,12 +2026,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+  <conditionalFormatting sqref="H24 H27">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24 H27">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1887,29 +2043,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H26">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1932,17 +2071,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
@@ -1953,7 +2092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1964,7 +2103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1975,7 +2114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1986,7 +2125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1997,7 +2136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -2008,7 +2147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>6</v>
       </c>

--- a/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Netherlands/#EURO#Netherlands#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AA584C-F485-4EA7-9DE2-8475990A7F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD84B8D-1291-41DA-AAF8-08BB01CF45F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>570.000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -541,14 +541,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="19">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -557,15 +558,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -708,9 +700,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -985,7 +977,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1008,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="30"/>
       <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="4"/>
     </row>
@@ -1028,22 +1020,22 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="4"/>
     </row>
@@ -1052,20 +1044,20 @@
         <v>2007</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="11">
         <v>0</v>
@@ -1080,25 +1072,25 @@
         <v>2008</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1110,20 +1102,20 @@
         <v>2009</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="11">
         <v>0</v>
@@ -1138,25 +1130,25 @@
         <v>2010</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="12" t="str">
         <f t="shared" ref="I6" si="1">IF(OR(AND(H6&gt;1,H6&lt;&gt;"-")),"Can exchange","")</f>
@@ -1168,20 +1160,20 @@
         <v>2011</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="11">
         <v>1</v>
@@ -1196,20 +1188,20 @@
         <v>2012</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="11">
         <v>1</v>
@@ -1224,20 +1216,20 @@
         <v>2013</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="11">
         <v>0</v>
@@ -1253,20 +1245,20 @@
         <v>2013</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="11">
         <v>0</v>
@@ -1282,25 +1274,25 @@
         <v>2013</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="F11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>39</v>
-      </c>
       <c r="H11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" ref="I11" si="3">IF(OR(AND(H11&gt;1,H11&lt;&gt;"-")),"Can exchange","")</f>
@@ -1313,20 +1305,20 @@
         <v>2014</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="11">
         <v>0</v>
@@ -1341,25 +1333,25 @@
         <v>2014</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="F13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1371,25 +1363,25 @@
         <v>2014</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="F14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="12" t="str">
         <f t="shared" ref="I14:I15" si="4">IF(OR(AND(H14&gt;1,H14&lt;&gt;"-")),"Can exchange","")</f>
@@ -1401,25 +1393,25 @@
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="F15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="12" t="str">
         <f t="shared" si="4"/>
@@ -1431,20 +1423,20 @@
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" s="11">
         <v>1</v>
@@ -1459,25 +1451,25 @@
         <v>2015</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="F17" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="12" t="str">
         <f t="shared" ref="I17" si="5">IF(OR(AND(H17&gt;1,H17&lt;&gt;"-")),"Can exchange","")</f>
@@ -1489,25 +1481,25 @@
         <v>2015</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="F18" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="12" t="str">
         <f t="shared" ref="I18:I19" si="6">IF(OR(AND(H18&gt;1,H18&lt;&gt;"-")),"Can exchange","")</f>
@@ -1519,25 +1511,25 @@
         <v>2015</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="F19" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I19" s="12" t="str">
         <f t="shared" si="6"/>
@@ -1549,25 +1541,25 @@
         <v>2016</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1579,25 +1571,25 @@
         <v>2017</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I21" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1609,25 +1601,25 @@
         <v>2018</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1639,25 +1631,25 @@
         <v>2019</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I23" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1669,25 +1661,25 @@
         <v>2020</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" s="12" t="str">
         <f t="shared" ref="I24:I26" si="7">IF(OR(AND(H24&gt;1,H24&lt;&gt;"-")),"Can exchange","")</f>
@@ -1699,25 +1691,25 @@
         <v>2021</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I25" s="12" t="str">
         <f t="shared" si="7"/>
@@ -1729,20 +1721,20 @@
         <v>2022</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H26" s="11">
         <v>0</v>
@@ -1757,25 +1749,25 @@
         <v>2023</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I27" s="12" t="str">
         <f t="shared" ref="I27" si="8">IF(OR(AND(H27&gt;1,H27&lt;&gt;"-")),"Can exchange","")</f>
@@ -1789,11 +1781,11 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3 H5 H7:H10 H12 H16">
-    <cfRule type="containsText" dxfId="19" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H3 H7:H10 H12 H16">
+  <conditionalFormatting sqref="H3 H5 H7:H10 H12 H16">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1806,7 +1798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1823,11 +1815,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23 H25">
-    <cfRule type="containsText" dxfId="17" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H25">
+  <conditionalFormatting sqref="H25 H23">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1840,7 +1832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1857,7 +1849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1874,7 +1866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="14" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1891,7 +1883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1908,7 +1900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="12" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1925,7 +1917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1942,7 +1934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1959,7 +1951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1976,7 +1968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1993,7 +1985,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2010,7 +2002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2027,11 +2019,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24 H27">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24 H27">
+  <conditionalFormatting sqref="H27 H24">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2044,7 +2036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2083,13 +2075,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2097,10 +2089,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2108,10 +2100,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2119,10 +2111,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2130,10 +2122,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2141,10 +2133,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2152,10 +2144,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
